--- a/Ex8_Iterações/EXC/locais.xlsx
+++ b/Ex8_Iterações/EXC/locais.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\Folium_Maps\Ex8_Iterações\EXC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8E23D2-8FF1-493A-8B70-E1C7806CAC2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24743C79-9E1A-4130-91F4-8A4140747958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{650163DF-91DC-46C0-9480-AA15595AD124}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>LOCALIDADE</t>
   </si>
@@ -93,109 +93,124 @@
     <t>GO</t>
   </si>
   <si>
+    <t>Campos Verdes/GO</t>
+  </si>
+  <si>
+    <t>Cavalcante/GO</t>
+  </si>
+  <si>
+    <t>Estrela do Norte/GO</t>
+  </si>
+  <si>
+    <t>Minaçu/GO</t>
+  </si>
+  <si>
+    <t>Mutunópolis/GO</t>
+  </si>
+  <si>
+    <t>Novo Planalto/GO</t>
+  </si>
+  <si>
+    <t>Uirapuru/GO</t>
+  </si>
+  <si>
+    <t>-14.2662866</t>
+  </si>
+  <si>
+    <t>-49.6787236</t>
+  </si>
+  <si>
+    <t>-14.313991</t>
+  </si>
+  <si>
+    <t>-49.1604868</t>
+  </si>
+  <si>
+    <t>-13.7939446</t>
+  </si>
+  <si>
+    <t>-47.4617806</t>
+  </si>
+  <si>
+    <t>-15.3065344</t>
+  </si>
+  <si>
+    <t>-49.6263106</t>
+  </si>
+  <si>
+    <t>-13.8702567</t>
+  </si>
+  <si>
+    <t>-49.0749988</t>
+  </si>
+  <si>
+    <t>-13.5249277</t>
+  </si>
+  <si>
+    <t>-48.2350924</t>
+  </si>
+  <si>
+    <t>-13.727453</t>
+  </si>
+  <si>
+    <t>-49.2830765</t>
+  </si>
+  <si>
+    <t>-49.5144863</t>
+  </si>
+  <si>
+    <t>-13.2427308</t>
+  </si>
+  <si>
+    <t>-14.2847704</t>
+  </si>
+  <si>
+    <t>-49.9299033</t>
+  </si>
+  <si>
+    <t>ICON</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>graduation-cap</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>lightgray</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>Ceres/go</t>
+  </si>
+  <si>
     <t>Campinorte/GO</t>
   </si>
   <si>
-    <t>Campos Verdes/GO</t>
-  </si>
-  <si>
-    <t>Cavalcante/GO</t>
-  </si>
-  <si>
-    <t>Ceres/go</t>
-  </si>
-  <si>
-    <t>Estrela do Norte/GO</t>
-  </si>
-  <si>
-    <t>Minaçu/GO</t>
-  </si>
-  <si>
-    <t>Mutunópolis/GO</t>
-  </si>
-  <si>
-    <t>Novo Planalto/GO</t>
-  </si>
-  <si>
-    <t>Uirapuru/GO</t>
-  </si>
-  <si>
-    <t>-14.2662866</t>
-  </si>
-  <si>
-    <t>-49.6787236</t>
-  </si>
-  <si>
-    <t>-14.313991</t>
-  </si>
-  <si>
-    <t>-49.1604868</t>
-  </si>
-  <si>
-    <t>-13.7939446</t>
-  </si>
-  <si>
-    <t>-47.4617806</t>
-  </si>
-  <si>
-    <t>-15.3065344</t>
-  </si>
-  <si>
-    <t>-49.6263106</t>
-  </si>
-  <si>
-    <t>-13.8702567</t>
-  </si>
-  <si>
-    <t>-49.0749988</t>
-  </si>
-  <si>
-    <t>-13.5249277</t>
-  </si>
-  <si>
-    <t>-48.2350924</t>
-  </si>
-  <si>
-    <t>-13.727453</t>
-  </si>
-  <si>
-    <t>-49.2830765</t>
-  </si>
-  <si>
-    <t>-49.5144863</t>
-  </si>
-  <si>
-    <t>-13.2427308</t>
-  </si>
-  <si>
-    <t>-14.2847704</t>
-  </si>
-  <si>
-    <t>-49.9299033</t>
-  </si>
-  <si>
-    <t>ICON</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>graduation-cap</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>COLOR</t>
-  </si>
-  <si>
-    <t>lightgray</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>blue</t>
+    <t>DESCRICAO</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum</t>
+  </si>
+  <si>
+    <t>Dolor Sit amet&lt;br&gt; Venha venha</t>
+  </si>
+  <si>
+    <t>Aqui tem Alguma &lt;i&gt;Coisa&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Texto exemplo</t>
   </si>
 </sst>
 </file>
@@ -548,9 +563,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AC18D9B-8781-4BFB-8E05-FD0A940AB837}" name="Tabela1" displayName="Tabela1" ref="A1:H10" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H10" xr:uid="{1AC18D9B-8781-4BFB-8E05-FD0A940AB837}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1AC18D9B-8781-4BFB-8E05-FD0A940AB837}" name="Tabela1" displayName="Tabela1" ref="A1:I10" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:I10" xr:uid="{1AC18D9B-8781-4BFB-8E05-FD0A940AB837}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{06AAE60B-5665-4498-B551-B31813C6058C}" name="LOCALIDADE" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{BF7895B7-0114-46F7-B15F-61072B15888D}" name="UF" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{71E67A76-25C0-4030-BDDF-88BBAE368C5A}" name="UF_2" dataDxfId="5"/>
@@ -559,6 +574,7 @@
     <tableColumn id="6" xr3:uid="{8E51C400-0C3B-4024-BA4F-A98AF3091595}" name="LONG" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{CB10020A-D1D1-414C-BA0E-98C1ECB327C7}" name="ICON" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{27CC7830-E593-4431-A52F-43F292417E98}" name="COLOR" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{7FD8AE75-3EEA-4912-9F14-9A3BFA84ABEC}" name="DESCRICAO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -861,10 +877,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2CA45E-3F5A-4AC5-A575-556703EA03D9}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,9 +892,10 @@
     <col min="5" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="30.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -898,13 +915,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -915,22 +935,25 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -941,22 +964,25 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -967,22 +993,25 @@
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -993,22 +1022,25 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1019,22 +1051,25 @@
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1045,22 +1080,25 @@
         <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1071,22 +1109,25 @@
         <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1097,22 +1138,25 @@
         <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
@@ -1123,19 +1167,22 @@
         <v>16</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
